--- a/data/R_logistyczna.xlsx
+++ b/data/R_logistyczna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\192287\Documents\uni-statistical-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99588E78-4250-4B39-A056-0270DC33648A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC0F3FA-6539-44CE-9480-E3DBC512EBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="6615" xr2:uid="{BA4551AA-6191-4600-AE88-BE5BAAD74674}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
